--- a/Device List.xlsx
+++ b/Device List.xlsx
@@ -118,7 +118,7 @@
     <t xml:space="preserve">Start a schedule</t>
   </si>
   <si>
-    <t xml:space="preserve">Smart Light </t>
+    <t xml:space="preserve">Smart Light</t>
   </si>
   <si>
     <t xml:space="preserve">L</t>
@@ -422,18 +422,18 @@
   </sheetPr>
   <dimension ref="A1:E95"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A88" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A99" activeCellId="0" sqref="A99"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.4336734693878"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.25"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.1632653061224"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.7142857142857"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -483,6 +483,9 @@
         <v>9</v>
       </c>
     </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0"/>
+    </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>10</v>
@@ -518,6 +521,9 @@
         <v>15</v>
       </c>
     </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0"/>
+    </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>16</v>
@@ -559,6 +565,9 @@
         <v>22</v>
       </c>
     </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0"/>
+    </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>23</v>
@@ -630,6 +639,9 @@
         <v>9</v>
       </c>
     </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="0"/>
+    </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
         <v>35</v>
@@ -665,6 +677,9 @@
         <v>40</v>
       </c>
     </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="0"/>
+    </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
         <v>41</v>
@@ -760,6 +775,9 @@
         <v>37</v>
       </c>
     </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="0"/>
+    </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
         <v>52</v>
@@ -807,6 +825,9 @@
         <v>60</v>
       </c>
     </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="0"/>
+    </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
         <v>61</v>
@@ -836,6 +857,12 @@
         <v>15</v>
       </c>
     </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B67" s="0"/>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B68" s="0"/>
+    </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
         <v>65</v>
@@ -865,6 +892,9 @@
         <v>9</v>
       </c>
     </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B73" s="0"/>
+    </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
         <v>69</v>
@@ -953,6 +983,9 @@
       <c r="C87" s="0" t="s">
         <v>9</v>
       </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B88" s="0"/>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">

--- a/Device List.xlsx
+++ b/Device List.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="96">
   <si>
     <t xml:space="preserve">Device Name</t>
   </si>
@@ -79,6 +79,12 @@
     <t xml:space="preserve">Functionality</t>
   </si>
   <si>
+    <t xml:space="preserve">Users allowed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User Tags</t>
+  </si>
+  <si>
     <t xml:space="preserve">Smart Lock</t>
   </si>
   <si>
@@ -88,12 +94,27 @@
     <t xml:space="preserve">Un/lock smart lock</t>
   </si>
   <si>
+    <t xml:space="preserve">1,2,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">private sensitive</t>
+  </si>
+  <si>
     <t xml:space="preserve">View usage history</t>
   </si>
   <si>
+    <t xml:space="preserve">1,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">secondary</t>
+  </si>
+  <si>
     <t xml:space="preserve">Control/modify users</t>
   </si>
   <si>
+    <t xml:space="preserve">primary</t>
+  </si>
+  <si>
     <t xml:space="preserve">Restrict usage over a period</t>
   </si>
   <si>
@@ -109,6 +130,12 @@
     <t xml:space="preserve">Change temperature</t>
   </si>
   <si>
+    <t xml:space="preserve">1,2,3,4,5,6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t xml:space="preserve">Add/change schedule</t>
   </si>
   <si>
@@ -151,6 +178,12 @@
     <t xml:space="preserve">Ask private details</t>
   </si>
   <si>
+    <t xml:space="preserve">1,2,3,5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">private</t>
+  </si>
+  <si>
     <t xml:space="preserve">Add items to shopping cart</t>
   </si>
   <si>
@@ -187,6 +220,12 @@
     <t xml:space="preserve">Change parameters</t>
   </si>
   <si>
+    <t xml:space="preserve">1,2,3,4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sensitive</t>
+  </si>
+  <si>
     <t xml:space="preserve">Add new equipment</t>
   </si>
   <si>
@@ -287,6 +326,12 @@
   </si>
   <si>
     <t xml:space="preserve">View inside fridge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,2,3,4,5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">private non-sensitive</t>
   </si>
   <si>
     <t xml:space="preserve">View family board</t>
@@ -394,13 +439,21 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -420,20 +473,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E95"/>
+  <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A68" activeCellId="0" sqref="A68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.1632653061224"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.7142857142857"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.3520408163265"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.6326530612245"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.10204081632653"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -446,586 +499,1097 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="E1" s="0"/>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0"/>
       <c r="C3" s="0" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0"/>
       <c r="C4" s="0" t="s">
-        <v>7</v>
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0"/>
       <c r="C5" s="0" t="s">
-        <v>8</v>
+        <v>15</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0"/>
       <c r="C6" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0"/>
+      <c r="D7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>12</v>
+        <v>19</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0"/>
       <c r="C9" s="0" t="s">
-        <v>13</v>
+        <v>22</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0"/>
       <c r="C10" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="0" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0"/>
       <c r="C11" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0"/>
       <c r="C12" s="0" t="s">
-        <v>15</v>
+        <v>24</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0"/>
+      <c r="D13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>18</v>
+        <v>27</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0"/>
       <c r="C15" s="0" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0"/>
       <c r="C16" s="0" t="s">
-        <v>20</v>
+        <v>29</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0"/>
       <c r="C17" s="0" t="s">
-        <v>21</v>
+        <v>30</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0"/>
       <c r="C18" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0"/>
       <c r="C19" s="0" t="s">
-        <v>22</v>
+        <v>31</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0"/>
+      <c r="D20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>25</v>
+        <v>34</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0"/>
       <c r="C22" s="0" t="s">
-        <v>26</v>
+        <v>35</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0"/>
       <c r="C23" s="0" t="s">
-        <v>27</v>
+        <v>38</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0"/>
       <c r="C24" s="0" t="s">
-        <v>28</v>
+        <v>39</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0"/>
       <c r="C25" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0"/>
       <c r="C26" s="0" t="s">
-        <v>30</v>
+        <v>41</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0"/>
       <c r="C27" s="0" t="s">
-        <v>31</v>
+        <v>42</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0"/>
       <c r="C28" s="0" t="s">
-        <v>32</v>
+        <v>43</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0"/>
       <c r="C29" s="0" t="s">
-        <v>33</v>
+        <v>44</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0"/>
       <c r="C30" s="0" t="s">
-        <v>34</v>
+        <v>45</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0"/>
       <c r="C31" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="0"/>
+      <c r="D32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>37</v>
+        <v>48</v>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="0"/>
       <c r="C34" s="0" t="s">
-        <v>38</v>
+        <v>49</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0"/>
       <c r="C35" s="0" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="0"/>
       <c r="C36" s="0" t="s">
-        <v>39</v>
+        <v>52</v>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="0"/>
       <c r="C37" s="0" t="s">
-        <v>40</v>
+        <v>53</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="0"/>
+      <c r="D38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>43</v>
+        <v>56</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="0"/>
       <c r="C40" s="0" t="s">
-        <v>44</v>
+        <v>57</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="0"/>
       <c r="C41" s="0" t="s">
-        <v>45</v>
+        <v>58</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="0"/>
       <c r="C42" s="0" t="s">
-        <v>46</v>
+        <v>59</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="0"/>
       <c r="C43" s="0" t="s">
-        <v>47</v>
+        <v>60</v>
+      </c>
+      <c r="D43" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="0"/>
       <c r="C44" s="0" t="s">
-        <v>48</v>
+        <v>61</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="0"/>
       <c r="C45" s="0" t="s">
-        <v>49</v>
+        <v>62</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="0"/>
       <c r="C46" s="0" t="s">
-        <v>50</v>
+        <v>63</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="0"/>
       <c r="C47" s="0" t="s">
-        <v>51</v>
+        <v>64</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="0"/>
       <c r="C48" s="0" t="s">
-        <v>31</v>
+        <v>42</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="0"/>
       <c r="C49" s="0" t="s">
-        <v>32</v>
+        <v>43</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="0"/>
       <c r="C50" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
+      </c>
+      <c r="D50" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="0"/>
       <c r="C51" s="0" t="s">
-        <v>33</v>
+        <v>44</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="0"/>
       <c r="C52" s="0" t="s">
-        <v>27</v>
+        <v>38</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="0"/>
       <c r="C53" s="0" t="s">
-        <v>37</v>
+        <v>48</v>
+      </c>
+      <c r="D53" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F53" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="0"/>
+      <c r="D54" s="0"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>54</v>
+        <v>67</v>
+      </c>
+      <c r="D55" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F55" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="0"/>
       <c r="C56" s="0" t="s">
-        <v>55</v>
+        <v>68</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F56" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="0"/>
       <c r="C57" s="0" t="s">
-        <v>56</v>
+        <v>69</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="0"/>
       <c r="C58" s="0" t="s">
-        <v>57</v>
+        <v>70</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="0"/>
       <c r="C59" s="0" t="s">
-        <v>58</v>
+        <v>71</v>
+      </c>
+      <c r="D59" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F59" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="0"/>
       <c r="C60" s="0" t="s">
-        <v>59</v>
+        <v>72</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="0"/>
       <c r="C61" s="0" t="s">
-        <v>60</v>
+        <v>73</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="0"/>
+      <c r="D62" s="0"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>63</v>
+        <v>76</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F63" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="0"/>
       <c r="C64" s="0" t="s">
-        <v>64</v>
+        <v>77</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="0"/>
       <c r="C65" s="0" t="s">
-        <v>58</v>
+        <v>71</v>
+      </c>
+      <c r="D65" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F65" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="0"/>
       <c r="C66" s="0" t="s">
-        <v>15</v>
+        <v>24</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F66" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="0"/>
+      <c r="D67" s="0"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="0"/>
+      <c r="A68" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F68" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="B69" s="0"/>
       <c r="C69" s="0" t="s">
-        <v>67</v>
+        <v>81</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F69" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="0"/>
       <c r="C70" s="0" t="s">
-        <v>68</v>
+        <v>71</v>
+      </c>
+      <c r="D70" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F70" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="0"/>
       <c r="C71" s="0" t="s">
-        <v>58</v>
+        <v>16</v>
+      </c>
+      <c r="D71" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F71" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="0"/>
-      <c r="C72" s="0" t="s">
+      <c r="D72" s="0"/>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D73" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F73" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B74" s="0"/>
+      <c r="C74" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F74" s="0" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="0"/>
-    </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C74" s="0" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="0"/>
       <c r="C75" s="0" t="s">
-        <v>68</v>
+        <v>84</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F75" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="0"/>
       <c r="C76" s="0" t="s">
-        <v>71</v>
+        <v>85</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F76" s="0" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="0"/>
       <c r="C77" s="0" t="s">
-        <v>72</v>
+        <v>38</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F77" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="0"/>
       <c r="C78" s="0" t="s">
-        <v>27</v>
+        <v>88</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F78" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="0"/>
       <c r="C79" s="0" t="s">
-        <v>73</v>
+        <v>89</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F79" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="0"/>
       <c r="C80" s="0" t="s">
-        <v>74</v>
+        <v>45</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F80" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="0"/>
       <c r="C81" s="0" t="s">
-        <v>34</v>
+        <v>30</v>
+      </c>
+      <c r="D81" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F81" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="0"/>
       <c r="C82" s="0" t="s">
-        <v>21</v>
+        <v>59</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F82" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="0"/>
       <c r="C83" s="0" t="s">
-        <v>46</v>
+        <v>90</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F83" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="0"/>
       <c r="C84" s="0" t="s">
-        <v>75</v>
+        <v>72</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F84" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="0"/>
       <c r="C85" s="0" t="s">
-        <v>59</v>
+        <v>43</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F85" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="0"/>
       <c r="C86" s="0" t="s">
-        <v>32</v>
+        <v>16</v>
+      </c>
+      <c r="D86" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F86" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="0"/>
-      <c r="C87" s="0" t="s">
-        <v>9</v>
-      </c>
+      <c r="D87" s="0"/>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="0"/>
+      <c r="A88" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C88" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F88" s="0" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="C89" s="0" t="s">
-        <v>78</v>
+        <v>94</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F89" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C90" s="0" t="s">
-        <v>79</v>
+        <v>72</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F90" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C91" s="0" t="s">
-        <v>59</v>
+        <v>43</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F91" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C92" s="0" t="s">
-        <v>32</v>
+        <v>95</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F92" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C93" s="0" t="s">
-        <v>80</v>
+        <v>71</v>
+      </c>
+      <c r="D93" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F93" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C94" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C95" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
+      </c>
+      <c r="D94" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F94" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Device List.xlsx
+++ b/Device List.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="104">
   <si>
     <t xml:space="preserve">Device Name</t>
   </si>
@@ -85,6 +85,9 @@
     <t xml:space="preserve">User Tags</t>
   </si>
   <si>
+    <t xml:space="preserve">Critical Tags</t>
+  </si>
+  <si>
     <t xml:space="preserve">Smart Lock</t>
   </si>
   <si>
@@ -100,6 +103,9 @@
     <t xml:space="preserve">private sensitive</t>
   </si>
   <si>
+    <t xml:space="preserve">1S</t>
+  </si>
+  <si>
     <t xml:space="preserve">View usage history</t>
   </si>
   <si>
@@ -109,6 +115,9 @@
     <t xml:space="preserve">secondary</t>
   </si>
   <si>
+    <t xml:space="preserve">1S1P</t>
+  </si>
+  <si>
     <t xml:space="preserve">Control/modify users</t>
   </si>
   <si>
@@ -139,6 +148,9 @@
     <t xml:space="preserve">Add/change schedule</t>
   </si>
   <si>
+    <t xml:space="preserve">2S</t>
+  </si>
+  <si>
     <t xml:space="preserve">create/modify settings</t>
   </si>
   <si>
@@ -184,9 +196,15 @@
     <t xml:space="preserve">private</t>
   </si>
   <si>
+    <t xml:space="preserve">1P</t>
+  </si>
+  <si>
     <t xml:space="preserve">Add items to shopping cart</t>
   </si>
   <si>
+    <t xml:space="preserve">3S</t>
+  </si>
+  <si>
     <t xml:space="preserve">Adding skills</t>
   </si>
   <si>
@@ -199,6 +217,9 @@
     <t xml:space="preserve">View preferences/history</t>
   </si>
   <si>
+    <t xml:space="preserve">2P</t>
+  </si>
+  <si>
     <t xml:space="preserve">Modify preferences</t>
   </si>
   <si>
@@ -320,6 +341,9 @@
   </si>
   <si>
     <t xml:space="preserve">Fridge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3P</t>
   </si>
   <si>
     <t xml:space="preserve">View device condition</t>
@@ -397,12 +421,54 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF66"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3333FF"/>
+        <bgColor rgb="FF3366FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6600"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF00CC"/>
+        <bgColor rgb="FFFF00FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFCCCCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66CC99"/>
+        <bgColor rgb="FF99CCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF006600"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -439,7 +505,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -456,6 +522,34 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -465,6 +559,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00CC"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFCCCCCC"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF66"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF66CC99"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF3333FF"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -473,20 +627,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F94"/>
+  <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A68" activeCellId="0" sqref="A68"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A76" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H100" activeCellId="0" sqref="H100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.3520408163265"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.6326530612245"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.9489795918367"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.0918367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -506,70 +659,88 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>5</v>
+      <c r="A2" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0"/>
-      <c r="C3" s="0" t="s">
-        <v>10</v>
+      <c r="C3" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0"/>
-      <c r="C4" s="0" t="s">
-        <v>13</v>
+      <c r="C4" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0"/>
-      <c r="C5" s="0" t="s">
-        <v>15</v>
+      <c r="C5" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="0" t="s">
         <v>11</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0"/>
-      <c r="C6" s="0" t="s">
-        <v>16</v>
+      <c r="C6" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -577,68 +748,83 @@
       <c r="D7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>17</v>
+      <c r="A8" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0"/>
-      <c r="C9" s="0" t="s">
-        <v>22</v>
+      <c r="C9" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0"/>
-      <c r="C10" s="0" t="s">
-        <v>23</v>
+      <c r="C10" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0"/>
-      <c r="C11" s="0" t="s">
-        <v>16</v>
+      <c r="C11" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="D11" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0"/>
-      <c r="C12" s="0" t="s">
-        <v>24</v>
+      <c r="C12" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -646,80 +832,98 @@
       <c r="D13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>25</v>
+      <c r="A14" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="0" t="s">
         <v>26</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0"/>
-      <c r="C15" s="0" t="s">
-        <v>28</v>
+      <c r="C15" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0"/>
-      <c r="C16" s="0" t="s">
-        <v>29</v>
+      <c r="C16" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0"/>
-      <c r="C17" s="0" t="s">
-        <v>30</v>
+      <c r="C17" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="D17" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0"/>
-      <c r="C18" s="0" t="s">
-        <v>16</v>
+      <c r="C18" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="D18" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0"/>
-      <c r="C19" s="0" t="s">
-        <v>31</v>
+      <c r="C19" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -727,140 +931,173 @@
       <c r="D20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>32</v>
+      <c r="A21" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0"/>
-      <c r="C22" s="0" t="s">
-        <v>35</v>
+      <c r="C22" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0"/>
-      <c r="C23" s="0" t="s">
-        <v>38</v>
+      <c r="C23" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0"/>
-      <c r="C24" s="0" t="s">
-        <v>39</v>
+      <c r="C24" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0"/>
-      <c r="C25" s="0" t="s">
+      <c r="C25" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="F25" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0"/>
-      <c r="C26" s="0" t="s">
-        <v>41</v>
+      <c r="C26" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0"/>
-      <c r="C27" s="0" t="s">
-        <v>42</v>
+      <c r="C27" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0"/>
-      <c r="C28" s="0" t="s">
-        <v>43</v>
+      <c r="C28" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0"/>
-      <c r="C29" s="0" t="s">
-        <v>44</v>
+      <c r="C29" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0"/>
       <c r="C30" s="0" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
+      </c>
+      <c r="H30" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0"/>
-      <c r="C31" s="0" t="s">
-        <v>16</v>
+      <c r="C31" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="D31" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -869,67 +1106,82 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C33" s="0" t="s">
-        <v>48</v>
+        <v>54</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="D33" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="0"/>
-      <c r="C34" s="0" t="s">
-        <v>49</v>
+      <c r="C34" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>51</v>
+        <v>58</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0"/>
-      <c r="C35" s="0" t="s">
+      <c r="C35" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F35" s="0" t="s">
-        <v>9</v>
+      <c r="H35" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="0"/>
-      <c r="C36" s="0" t="s">
-        <v>52</v>
+      <c r="C36" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="D36" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="H36" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="0"/>
-      <c r="C37" s="0" t="s">
-        <v>53</v>
+      <c r="C37" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="D37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" s="0" t="s">
         <v>11</v>
-      </c>
-      <c r="F37" s="0" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -937,188 +1189,233 @@
       <c r="D38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>54</v>
+      <c r="A39" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="H39" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="0"/>
-      <c r="C40" s="0" t="s">
+      <c r="C40" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F40" s="0" t="s">
-        <v>51</v>
+        <v>58</v>
+      </c>
+      <c r="H40" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="0"/>
-      <c r="C41" s="0" t="s">
-        <v>58</v>
+      <c r="C41" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="H41" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="0"/>
-      <c r="C42" s="0" t="s">
-        <v>59</v>
+      <c r="C42" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="H42" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="0"/>
-      <c r="C43" s="0" t="s">
-        <v>60</v>
+      <c r="C43" s="8" t="s">
+        <v>67</v>
       </c>
       <c r="D43" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="H43" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="0"/>
       <c r="C44" s="0" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="H44" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="0"/>
-      <c r="C45" s="0" t="s">
-        <v>62</v>
+      <c r="C45" s="8" t="s">
+        <v>69</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="H45" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="0"/>
-      <c r="C46" s="0" t="s">
-        <v>63</v>
+      <c r="C46" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="H46" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="0"/>
-      <c r="C47" s="0" t="s">
-        <v>64</v>
+      <c r="C47" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="H47" s="0" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="0"/>
-      <c r="C48" s="0" t="s">
+      <c r="C48" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="H48" s="0" t="s">
         <v>42</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F48" s="0" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="0"/>
-      <c r="C49" s="0" t="s">
-        <v>43</v>
+      <c r="C49" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="H49" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="0"/>
-      <c r="C50" s="0" t="s">
-        <v>16</v>
+      <c r="C50" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="D50" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="H50" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="0"/>
-      <c r="C51" s="0" t="s">
-        <v>44</v>
+      <c r="C51" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="H51" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="0"/>
-      <c r="C52" s="0" t="s">
-        <v>38</v>
+      <c r="C52" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
+      </c>
+      <c r="H52" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="0"/>
-      <c r="C53" s="0" t="s">
-        <v>48</v>
+      <c r="C53" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="D53" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="H53" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1126,92 +1423,113 @@
       <c r="D54" s="0"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
-        <v>65</v>
+      <c r="A55" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C55" s="0" t="s">
-        <v>67</v>
+        <v>73</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="D55" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="H55" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="0"/>
-      <c r="C56" s="0" t="s">
-        <v>68</v>
+      <c r="C56" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="D56" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H56" s="0" t="s">
         <v>11</v>
-      </c>
-      <c r="F56" s="0" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="0"/>
-      <c r="C57" s="0" t="s">
-        <v>69</v>
+      <c r="C57" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="H57" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="0"/>
-      <c r="C58" s="0" t="s">
-        <v>70</v>
+      <c r="C58" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="H58" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="0"/>
-      <c r="C59" s="0" t="s">
-        <v>71</v>
+      <c r="C59" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="D59" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="H59" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="0"/>
-      <c r="C60" s="0" t="s">
-        <v>72</v>
+      <c r="C60" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="H60" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="0"/>
-      <c r="C61" s="0" t="s">
-        <v>73</v>
+      <c r="C61" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="D61" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F61" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H61" s="0" t="s">
         <v>11</v>
-      </c>
-      <c r="F61" s="0" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1220,55 +1538,67 @@
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C63" s="0" t="s">
-        <v>76</v>
+        <v>82</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="D63" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F63" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H63" s="0" t="s">
         <v>11</v>
-      </c>
-      <c r="F63" s="0" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="0"/>
-      <c r="C64" s="0" t="s">
-        <v>77</v>
+      <c r="C64" s="6" t="s">
+        <v>84</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="H64" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="0"/>
-      <c r="C65" s="0" t="s">
-        <v>71</v>
+      <c r="C65" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="D65" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="H65" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="0"/>
-      <c r="C66" s="0" t="s">
-        <v>24</v>
+      <c r="C66" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="H66" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1276,56 +1606,68 @@
       <c r="D67" s="0"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
-        <v>78</v>
+      <c r="A68" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C68" s="0" t="s">
-        <v>80</v>
+        <v>86</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="D68" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F68" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H68" s="0" t="s">
         <v>11</v>
-      </c>
-      <c r="F68" s="0" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="0"/>
-      <c r="C69" s="0" t="s">
-        <v>81</v>
+      <c r="C69" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="H69" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="0"/>
-      <c r="C70" s="0" t="s">
-        <v>71</v>
+      <c r="C70" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="D70" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="H70" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="0"/>
-      <c r="C71" s="0" t="s">
-        <v>16</v>
+      <c r="C71" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="D71" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="H71" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1333,176 +1675,218 @@
       <c r="D72" s="0"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
-        <v>82</v>
+      <c r="A73" s="7" t="s">
+        <v>89</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C73" s="0" t="s">
-        <v>53</v>
+        <v>90</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="D73" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="H73" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="0"/>
-      <c r="C74" s="0" t="s">
-        <v>81</v>
+      <c r="C74" s="10" t="s">
+        <v>88</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="H74" s="0" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="0"/>
-      <c r="C75" s="0" t="s">
-        <v>84</v>
+      <c r="C75" s="8" t="s">
+        <v>92</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="H75" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="0"/>
-      <c r="C76" s="0" t="s">
-        <v>85</v>
+      <c r="C76" s="10" t="s">
+        <v>93</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>87</v>
+        <v>95</v>
+      </c>
+      <c r="H76" s="0" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="0"/>
-      <c r="C77" s="0" t="s">
-        <v>38</v>
+      <c r="C77" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
+      </c>
+      <c r="H77" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="0"/>
-      <c r="C78" s="0" t="s">
-        <v>88</v>
+      <c r="C78" s="7" t="s">
+        <v>96</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="H78" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="0"/>
-      <c r="C79" s="0" t="s">
-        <v>89</v>
+      <c r="C79" s="7" t="s">
+        <v>97</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
+      </c>
+      <c r="H79" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="0"/>
-      <c r="C80" s="0" t="s">
-        <v>45</v>
+      <c r="C80" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
+      </c>
+      <c r="H80" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="0"/>
-      <c r="C81" s="0" t="s">
-        <v>30</v>
+      <c r="C81" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="D81" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="H81" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="0"/>
-      <c r="C82" s="0" t="s">
-        <v>59</v>
+      <c r="C82" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="H82" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="0"/>
       <c r="C83" s="0" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="H83" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="0"/>
-      <c r="C84" s="0" t="s">
-        <v>72</v>
+      <c r="C84" s="9" t="s">
+        <v>79</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F84" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="H84" s="0" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="0"/>
-      <c r="C85" s="0" t="s">
-        <v>43</v>
+      <c r="C85" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="H85" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="0"/>
-      <c r="C86" s="0" t="s">
-        <v>16</v>
+      <c r="C86" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="D86" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F86" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="H86" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1511,85 +1895,106 @@
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F88" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="H88" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C89" s="0" t="s">
-        <v>94</v>
+      <c r="C89" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="D89" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F89" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H89" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F89" s="0" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C90" s="0" t="s">
-        <v>72</v>
+      <c r="C90" s="9" t="s">
+        <v>79</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="H90" s="0" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C91" s="0" t="s">
-        <v>43</v>
+      <c r="C91" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F91" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="H91" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C92" s="0" t="s">
-        <v>95</v>
+      <c r="C92" s="6" t="s">
+        <v>103</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F92" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="H92" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C93" s="0" t="s">
-        <v>71</v>
+      <c r="C93" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="D93" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F93" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="H93" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C94" s="0" t="s">
-        <v>16</v>
+      <c r="C94" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="D94" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F94" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="H94" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
